--- a/MEASUREMENTS.xlsx
+++ b/MEASUREMENTS.xlsx
@@ -10,14 +10,14 @@
     <sheet name="MEASUREMENTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MEASUREMENTS">'MEASUREMENTS'!$A$1:$U$6</definedName>
+    <definedName name="MEASUREMENTS">'MEASUREMENTS'!$A$1:$U$12</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DEVICE_ID</t>
   </si>
@@ -85,19 +85,37 @@
     <t>v001/c00002/d001</t>
   </si>
   <si>
-    <t>00062ADBD1805BB459777C147BD20002</t>
-  </si>
-  <si>
-    <t>00062ADBF498B4220A0C9B165DD90002</t>
-  </si>
-  <si>
-    <t>00062ADC17ADB27F0A0C9D165D200002</t>
-  </si>
-  <si>
-    <t>00062ADC3AC81F190A0C9E167F3B0002</t>
-  </si>
-  <si>
-    <t>00062ADC5DE9C64E597785146E6A0002</t>
+    <t>00062B7BB2ADFC270A0CD000185B0002</t>
+  </si>
+  <si>
+    <t>00062B7BD5CA6B515977EF1E107C0002</t>
+  </si>
+  <si>
+    <t>00062B7BF94CE0920A0CD80022580002</t>
+  </si>
+  <si>
+    <t>00062B7C1C5C315A0A0CDD006A740002</t>
+  </si>
+  <si>
+    <t>00062B7C3F6C93D75977F31E1A970002</t>
+  </si>
+  <si>
+    <t>00062B7C627FE80F0A0CE600350A0002</t>
+  </si>
+  <si>
+    <t>00062B7C859BD25F0A0CB600510F0002</t>
+  </si>
+  <si>
+    <t>00062B7CA8B1166D0A0CEF003DAC0002</t>
+  </si>
+  <si>
+    <t>00062B7CCBDBD80C0A0CF30022570002</t>
+  </si>
+  <si>
+    <t>00062B7CEEFEDED55977F91E487F0002</t>
+  </si>
+  <si>
+    <t>00062B7D12259F940A0CF90070DA0002</t>
   </si>
 </sst>
 </file>
@@ -528,64 +546,64 @@
         <v>21</v>
       </c>
       <c r="B2" s="3">
-        <v>45661.285416666666</v>
+        <v>45669.23263888889</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>13.8</v>
+        <v>15.8</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H2">
-        <v>84.5</v>
+        <v>84.1</v>
       </c>
       <c r="I2">
-        <v>102081</v>
+        <v>103760</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P2">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="Q2">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="R2">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="S2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
         <v>22</v>
       </c>
       <c r="U2" s="3">
-        <v>45662.95862268518</v>
+        <v>45669.958599537036</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -593,64 +611,64 @@
         <v>21</v>
       </c>
       <c r="B3" s="3">
-        <v>45661.291666666664</v>
+        <v>45669.239583333336</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>14.9</v>
+        <v>16.7</v>
       </c>
       <c r="E3">
-        <v>0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>82.2</v>
+        <v>81.3</v>
       </c>
       <c r="I3">
-        <v>102090</v>
+        <v>103782</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K3">
+        <v>19</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
         <v>20</v>
       </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>17</v>
-      </c>
       <c r="N3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="R3">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="S3">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="T3" t="s">
         <v>23</v>
       </c>
       <c r="U3" s="3">
-        <v>45662.95862268518</v>
+        <v>45669.958599537036</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -658,28 +676,28 @@
         <v>21</v>
       </c>
       <c r="B4" s="3">
-        <v>45661.29861111111</v>
+        <v>45669.24652777778</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>15.1</v>
+        <v>16.9</v>
       </c>
       <c r="E4">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H4">
-        <v>81.7</v>
+        <v>81.6</v>
       </c>
       <c r="I4">
-        <v>102096</v>
+        <v>103782</v>
       </c>
       <c r="J4">
         <v>28</v>
@@ -688,34 +706,34 @@
         <v>17</v>
       </c>
       <c r="L4">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="R4">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="S4">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
       </c>
       <c r="U4" s="3">
-        <v>45662.95862268518</v>
+        <v>45669.958599537036</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -723,64 +741,64 @@
         <v>21</v>
       </c>
       <c r="B5" s="3">
-        <v>45661.305555555555</v>
+        <v>45669.25347222222</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>15.5</v>
+        <v>16.9</v>
       </c>
       <c r="E5">
-        <v>0.3</v>
+        <v>-0.6</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H5">
-        <v>82.4</v>
+        <v>80.5</v>
       </c>
       <c r="I5">
-        <v>102093</v>
+        <v>103798</v>
       </c>
       <c r="J5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <v>13</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O5">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="R5">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="S5">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="T5" t="s">
         <v>25</v>
       </c>
       <c r="U5" s="3">
-        <v>45662.95862268518</v>
+        <v>45669.958599537036</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -788,64 +806,454 @@
         <v>21</v>
       </c>
       <c r="B6" s="3">
-        <v>45661.3125</v>
+        <v>45669.260416666664</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>15.8</v>
+        <v>16.8</v>
       </c>
       <c r="E6">
-        <v>0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1.9</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>103800</v>
+      </c>
+      <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>11</v>
+      </c>
+      <c r="O6">
         <v>7</v>
       </c>
-      <c r="G6">
-        <v>1.8</v>
-      </c>
-      <c r="H6">
-        <v>82.3</v>
-      </c>
-      <c r="I6">
-        <v>102098</v>
-      </c>
-      <c r="J6">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>17</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>23</v>
-      </c>
-      <c r="N6">
-        <v>21</v>
-      </c>
-      <c r="O6">
-        <v>17</v>
-      </c>
       <c r="P6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q6">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="R6">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="S6">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="T6" t="s">
         <v>26</v>
       </c>
       <c r="U6" s="3">
-        <v>45662.95862268518</v>
+        <v>45669.958599537036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45669.26666666667</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>16.7</v>
+      </c>
+      <c r="E7">
+        <v>-0.8</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1.8</v>
+      </c>
+      <c r="H7">
+        <v>80.9</v>
+      </c>
+      <c r="I7">
+        <v>103809</v>
+      </c>
+      <c r="J7">
+        <v>28</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
+        <v>15</v>
+      </c>
+      <c r="Q7">
+        <v>33</v>
+      </c>
+      <c r="R7">
+        <v>65</v>
+      </c>
+      <c r="S7">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="3">
+        <v>45669.958599537036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>45669.27361111111</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>16.7</v>
+      </c>
+      <c r="E8">
+        <v>-1.2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>1.8</v>
+      </c>
+      <c r="H8">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>103819</v>
+      </c>
+      <c r="J8">
+        <v>23</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <v>86</v>
+      </c>
+      <c r="R8">
+        <v>138</v>
+      </c>
+      <c r="S8">
+        <v>26</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="3">
+        <v>45669.958599537036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>45669.28055555555</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>16.7</v>
+      </c>
+      <c r="E9">
+        <v>-0.8</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.9</v>
+      </c>
+      <c r="H9">
+        <v>80.7</v>
+      </c>
+      <c r="I9">
+        <v>103832</v>
+      </c>
+      <c r="J9">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>9</v>
+      </c>
+      <c r="N9">
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <v>21</v>
+      </c>
+      <c r="Q9">
+        <v>39</v>
+      </c>
+      <c r="R9">
+        <v>73</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="3">
+        <v>45669.958599537036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>45669.2875</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>16.5</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.8</v>
+      </c>
+      <c r="H10">
+        <v>80.7</v>
+      </c>
+      <c r="I10">
+        <v>103832</v>
+      </c>
+      <c r="J10">
+        <v>38</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <v>28</v>
+      </c>
+      <c r="M10">
+        <v>49</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>29</v>
+      </c>
+      <c r="P10">
+        <v>16</v>
+      </c>
+      <c r="Q10">
+        <v>122</v>
+      </c>
+      <c r="R10">
+        <v>68</v>
+      </c>
+      <c r="S10">
+        <v>99</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="3">
+        <v>45669.958599537036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>45669.294444444444</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>16.2</v>
+      </c>
+      <c r="E11">
+        <v>-1.2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.8</v>
+      </c>
+      <c r="H11">
+        <v>80.5</v>
+      </c>
+      <c r="I11">
+        <v>103866</v>
+      </c>
+      <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>51</v>
+      </c>
+      <c r="L11">
+        <v>32</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>53</v>
+      </c>
+      <c r="O11">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>60</v>
+      </c>
+      <c r="Q11">
+        <v>147</v>
+      </c>
+      <c r="R11">
+        <v>174</v>
+      </c>
+      <c r="S11">
+        <v>61</v>
+      </c>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="3">
+        <v>45669.958599537036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3">
+        <v>45669.30069444444</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>-1.1</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>1.8</v>
+      </c>
+      <c r="H12">
+        <v>80.7</v>
+      </c>
+      <c r="I12">
+        <v>103876</v>
+      </c>
+      <c r="J12">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>36</v>
+      </c>
+      <c r="L12">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>36</v>
+      </c>
+      <c r="O12">
+        <v>9</v>
+      </c>
+      <c r="P12">
+        <v>62</v>
+      </c>
+      <c r="Q12">
+        <v>51</v>
+      </c>
+      <c r="R12">
+        <v>105</v>
+      </c>
+      <c r="S12">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="3">
+        <v>45669.958599537036</v>
       </c>
     </row>
   </sheetData>

--- a/MEASUREMENTS.xlsx
+++ b/MEASUREMENTS.xlsx
@@ -603,7 +603,7 @@
         <v>22</v>
       </c>
       <c r="U2" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="U3" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="U4" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
         <v>25</v>
       </c>
       <c r="U5" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>26</v>
       </c>
       <c r="U6" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="U7" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>28</v>
       </c>
       <c r="U8" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>29</v>
       </c>
       <c r="U9" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="U10" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>31</v>
       </c>
       <c r="U11" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>32</v>
       </c>
       <c r="U12" s="3">
-        <v>45669.958599537036</v>
+        <v>45676.958553240744</v>
       </c>
     </row>
   </sheetData>
